--- a/media/file_form_template/派工單樣板.xlsx
+++ b/media/file_form_template/派工單樣板.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>施工日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,11 +43,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否完工</t>
+    <t>工作派任計畫編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施工地點</t>
+    <t>手稿預計回傳日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,29 +416,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/media/file_form_template/派工單樣板.xlsx
+++ b/media/file_form_template/派工單樣板.xlsx
@@ -35,23 +35,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>施工日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完工日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作派任計畫編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手稿預計回傳日</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
+    <t>施工日期（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工日期（yyyy/mm/dd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手稿預計回傳日（yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,29 +419,32 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
